--- a/biology/Zoologie/Discodoris_boholiensis/Discodoris_boholiensis.xlsx
+++ b/biology/Zoologie/Discodoris_boholiensis/Discodoris_boholiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris de Bohol
-Discodoris boholiensis, communément nommé Doris de Bohol[2],[3], est une espèce de mollusques nudibranches du genre Discodoris.
+Discodoris boholiensis, communément nommé Doris de Bohol est une espèce de mollusques nudibranches du genre Discodoris.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Doris de Bohol se rencontre dans les eaux tropicales de l'Indo-ouest Pacifique, soit des côtes orientales de l'Afrique à la Papouasie-Nouvelle-Guinée[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Doris de Bohol se rencontre dans les eaux tropicales de l'Indo-ouest Pacifique, soit des côtes orientales de l'Afrique à la Papouasie-Nouvelle-Guinée,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat est la zone récifale sur les plateaux et plus rarement sur les pentes dans des zones sablonneuses ou même de coraux morts dans une profondeur faible[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la zone récifale sur les plateaux et plus rarement sur les pentes dans des zones sablonneuses ou même de coraux morts dans une profondeur faible.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut mesurer plus de 12 cm[2],[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut mesurer plus de 12 cm,. 
 Le manteau de cette espèce est très étendu, de forme globalement ovale au bords très ondulés. Le manteau est très fin et peut se rompre en cas d'agression sur le principe de l'autotomie.
 Entre les rhinophores et le panache branchial, il y a une petite crête longitudinale qui constitue une caractéristique physique de l'espèce.
 La couleur de fond du corps est blanche à crème avec des marbrures brun orangé le tout ponctué d'une multitude de petites papilles au sommet blanc.
@@ -611,9 +629,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce Nudibranche est benthique et nocturne[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce Nudibranche est benthique et nocturne.
 </t>
         </is>
       </c>
@@ -642,9 +662,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Discodoris boholiensis se nourrit principalement d'éponges[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discodoris boholiensis se nourrit principalement d'éponges.
 </t>
         </is>
       </c>
